--- a/肌肉定位點/test.xlsx
+++ b/肌肉定位點/test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10712\Desktop\網頁測試備份\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9C70B7-4FFA-4CE3-B434-9C72E6259FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4144692E-F16B-4F92-BD34-82A263347DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="390" windowWidth="9630" windowHeight="11025" tabRatio="921" firstSheet="18" activeTab="19" xr2:uid="{C769708F-773E-4FEE-B04C-0F5E2A11DE53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="921" activeTab="2" xr2:uid="{C769708F-773E-4FEE-B04C-0F5E2A11DE53}"/>
   </bookViews>
   <sheets>
     <sheet name="au_to_mu" sheetId="1" r:id="rId1"/>
     <sheet name="exp_to_au" sheetId="2" r:id="rId2"/>
     <sheet name="mu_to_na" sheetId="3" r:id="rId3"/>
     <sheet name="m1" sheetId="6" r:id="rId4"/>
-    <sheet name="m2" sheetId="5" r:id="rId5"/>
+    <sheet name="m2" sheetId="31" r:id="rId5"/>
     <sheet name="m3" sheetId="7" r:id="rId6"/>
     <sheet name="m4" sheetId="8" r:id="rId7"/>
     <sheet name="m5(0)" sheetId="9" r:id="rId8"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="255">
   <si>
     <t>au1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,822 +211,818 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>降口角肌</t>
+  </si>
+  <si>
+    <t>m20</t>
+  </si>
+  <si>
+    <t>m21</t>
+  </si>
+  <si>
+    <t>m22</t>
+  </si>
+  <si>
+    <t>m23</t>
+  </si>
+  <si>
+    <t>m24</t>
+  </si>
+  <si>
+    <t>m25</t>
+  </si>
+  <si>
+    <t>m26</t>
+  </si>
+  <si>
+    <t>m27</t>
+  </si>
+  <si>
+    <t>口輪匝肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降眉肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降眉間肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皺眉肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au5</t>
+  </si>
+  <si>
+    <t>au6</t>
+  </si>
+  <si>
+    <t>au7</t>
+  </si>
+  <si>
+    <t>au9</t>
+  </si>
+  <si>
+    <t>au10</t>
+  </si>
+  <si>
+    <t>au11</t>
+  </si>
+  <si>
+    <t>au12</t>
+  </si>
+  <si>
+    <t>au13</t>
+  </si>
+  <si>
+    <t>au14</t>
+  </si>
+  <si>
+    <t>au15</t>
+  </si>
+  <si>
+    <t>au16</t>
+  </si>
+  <si>
+    <t>au17</t>
+  </si>
+  <si>
+    <t>au4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au18</t>
+  </si>
+  <si>
+    <t>au20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au23</t>
+  </si>
+  <si>
+    <t>au24</t>
+  </si>
+  <si>
+    <t>au25</t>
+  </si>
+  <si>
+    <t>au26</t>
+  </si>
+  <si>
+    <t>au27</t>
+  </si>
+  <si>
+    <t>au28</t>
+  </si>
+  <si>
+    <t>au41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au42</t>
+  </si>
+  <si>
+    <t>au43</t>
+  </si>
+  <si>
+    <t>au44</t>
+  </si>
+  <si>
+    <t>au45</t>
+  </si>
+  <si>
+    <t>au46</t>
+  </si>
+  <si>
+    <t>m2 m3 m4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7 m4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7 m5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m9 m10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m19 m20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m21 m16 m17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m22 m23 m24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m25 m26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 285 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 337 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 336 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 417 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 465 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 343 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 399 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 419 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 197 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 196 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 174 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 114 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 245 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 193 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 55 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 107 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 108 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 51 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au1 au4 au15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au4 au5 au7 au17 au23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disgust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au1 au2 au4 au5 au20 au25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au1 au2 au5 au26/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顴大肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346 280 352</t>
+  </si>
+  <si>
+    <t>0 280 0</t>
+  </si>
+  <si>
+    <t>334 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>261 265 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 0.7 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 0.8 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>329 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 277 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>465 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>417 441 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330 425 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>342 353 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346 280 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280 425 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425 426 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>426 322 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>426 391 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423 426 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266 426 425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330 280 425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>426 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346 352 280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280 352 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>352 411 280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280 411 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425 411 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">427 0 0   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>432 436 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>436 410 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425 427 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 0.6 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>296 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>336 295 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 0.4 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>417 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 0.5 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 285 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 336 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 0.8 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>337 336 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151 296 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 0.7 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175 396 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 0.3 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>283 444 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 0.5 0</t>
+  </si>
+  <si>
+    <t>276 342 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285 442 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295 442 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>338 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>332 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>284 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>293 276 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>336 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285 9 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">164 0 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>393 269 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>322 269 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410 270 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 409 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 291 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 375 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>375 273 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>321 335 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314 313 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405 406 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 18 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84 83 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181 182 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91 106 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146 43 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57 146 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57 61 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185 57 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186 40 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92 40 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165 39 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167 39 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頦肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>428 396 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>396 377 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>377 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>377 152 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175 428 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mu_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上瞼提肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上瞼板肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提上唇鼻翼肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上唇提肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>顴小肌</t>
-  </si>
-  <si>
-    <t>降口角肌</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>m21</t>
-  </si>
-  <si>
-    <t>m22</t>
-  </si>
-  <si>
-    <t>m23</t>
-  </si>
-  <si>
-    <t>m24</t>
-  </si>
-  <si>
-    <t>m25</t>
-  </si>
-  <si>
-    <t>m26</t>
-  </si>
-  <si>
-    <t>m27</t>
-  </si>
-  <si>
-    <t>口輪匝肌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上唇切和下唇切(位於牙齒內部 無法呈現)(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上眼提肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上瞼提肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降眉肌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降眉間肌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皺眉肌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眶下肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上唇提肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上瞼板肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au5</t>
-  </si>
-  <si>
-    <t>au6</t>
-  </si>
-  <si>
-    <t>au7</t>
-  </si>
-  <si>
-    <t>au9</t>
-  </si>
-  <si>
-    <t>au10</t>
-  </si>
-  <si>
-    <t>au11</t>
-  </si>
-  <si>
-    <t>au12</t>
-  </si>
-  <si>
-    <t>au13</t>
-  </si>
-  <si>
-    <t>au14</t>
-  </si>
-  <si>
-    <t>au15</t>
-  </si>
-  <si>
-    <t>au16</t>
-  </si>
-  <si>
-    <t>au17</t>
-  </si>
-  <si>
-    <t>au4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au18</t>
-  </si>
-  <si>
-    <t>au20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au23</t>
-  </si>
-  <si>
-    <t>au24</t>
-  </si>
-  <si>
-    <t>au25</t>
-  </si>
-  <si>
-    <t>au26</t>
-  </si>
-  <si>
-    <t>au27</t>
-  </si>
-  <si>
-    <t>au28</t>
-  </si>
-  <si>
-    <t>au41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au42</t>
-  </si>
-  <si>
-    <t>au43</t>
-  </si>
-  <si>
-    <t>au44</t>
-  </si>
-  <si>
-    <t>au45</t>
-  </si>
-  <si>
-    <t>au46</t>
-  </si>
-  <si>
-    <t>m2 m3 m4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7 m4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7 m5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m9 m10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m19 m20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m21 m16 m17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m22 m23 m24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m25 m26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翼外肌[上頭與下頭,不確定](?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二腹肌[有拉扯到頸部相關位置](?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 285 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 337 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 336 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 417 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 465 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 343 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 399 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 419 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 197 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 196 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 174 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 114 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 245 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 193 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 55 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 107 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 108 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 51 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au1 au4 au15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au6 a15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au4 au5 au7 au17 au23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au4 au5 au7 au10 au23 au25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disgust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au9 au16 au15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au9 au17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au10 au16 au25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au1 au2 au4 au5 au20 au25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au1 au2 au4 au5 au25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surprise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au1 au2 au5 au26/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提上唇鼻翼肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提口角肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頰肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降下唇肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頸闊肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笑肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咬肌[分內部與淺部](?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顳肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翼內肌(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顴大肌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346 280 352</t>
-  </si>
-  <si>
-    <t>0 280 0</t>
-  </si>
-  <si>
-    <t>334 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>261 265 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3 0.7 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2 0.8 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>329 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 277 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>465 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>417 441 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330 425 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>342 353 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346 280 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>280 425 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>425 426 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>426 322 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>426 391 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>423 426 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>266 426 425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330 280 425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>426 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>425 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346 352 280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>280 352 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>352 411 280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>280 411 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>425 411 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">427 0 0   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>432 436 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>436 410 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>425 427 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4 0.6 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>280 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>296 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>336 295 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6 0.4 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>285 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>417 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 0.5 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 285 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 336 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2 0.8 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>337 336 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>151 296 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3 0.7 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175 396 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7 0.3 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>283 444 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 0.5 0</t>
-  </si>
-  <si>
-    <t>276 342 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>285 442 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>295 442 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>338 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>297 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>332 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>284 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>151 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>293 276 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>336 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>285 9 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">164 0 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>393 269 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>322 269 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410 270 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>287 409 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>287 291 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>287 375 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>375 273 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>321 335 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>314 313 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>405 406 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 18 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84 83 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>181 182 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91 106 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>146 43 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57 146 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57 61 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185 57 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186 40 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92 40 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>165 39 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167 39 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頦肌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>428 396 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>396 377 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>377 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>377 152 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175 428 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 0.5 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>285 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>417 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 285 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眶下肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提口角肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上唇切和下唇切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降下唇肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頰肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頸闊肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顳肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼內肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼外肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二腹肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上眼提肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咬肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#e33434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1e0cc9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1eb428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#de7f10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#127e88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1421,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -1461,15 +1457,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -1477,210 +1473,210 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1718,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,7 +1729,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +1759,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,10 +1781,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,10 +1792,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,10 +1803,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1818,10 +1814,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1829,10 +1825,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,7 +1850,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,7 +1997,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,7 +2008,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,10 +2016,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,10 +2027,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,7 +2041,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,7 +2063,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,7 +2085,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,7 +2107,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,7 +2173,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,10 +2181,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2207,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,7 +2228,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,7 +2239,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,10 +2258,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2384,94 +2380,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3243B89B-B5F9-4975-987D-4118492EE33F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62E4D78-C031-4092-B04B-4FB1DE62E19A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2514,7 +2525,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2533,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2544,10 +2555,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2555,10 +2566,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +2704,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,7 +2715,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,7 +2726,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +2734,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,10 +2745,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,10 +2756,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +2767,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,10 +2778,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,10 +2789,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,10 +2800,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +2811,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,10 +2822,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,10 +2833,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,10 +2844,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,10 +2855,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,10 +2866,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,10 +2877,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,10 +2888,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,10 +2899,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +2910,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,10 +2921,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,10 +2932,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,10 +2943,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3084,246 +3095,331 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010DE146-B3CD-4ECE-B3D1-CB7D4CB92714}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9" style="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="9" width="9" style="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>248</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3386,10 +3482,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3397,10 +3493,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3408,10 +3504,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3419,10 +3515,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3430,10 +3526,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3441,10 +3537,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3452,10 +3548,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3463,10 +3559,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3474,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3485,10 +3581,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3498,112 +3594,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC19734-DBBA-432B-8923-EBADF00A6BE6}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F13BE-71A0-40BD-90CF-68C80C00EA4B}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3661,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3644,7 +3688,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3655,7 +3699,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3666,7 +3710,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3677,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3688,7 +3732,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3699,7 +3743,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3710,7 +3754,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,7 +3765,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3732,7 +3776,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3743,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,7 +3798,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,7 +3809,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,7 +3820,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,7 +3831,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3798,7 +3842,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3809,7 +3853,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3820,7 +3864,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3831,7 +3875,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +3889,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3869,10 +3913,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3880,10 +3924,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3891,10 +3935,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3905,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3913,10 +3957,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3924,10 +3968,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3935,10 +3979,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/肌肉定位點/test.xlsx
+++ b/肌肉定位點/test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10712\Desktop\網頁測試備份\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4144692E-F16B-4F92-BD34-82A263347DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7734F61-C5FC-4724-86C9-CA948F7AC49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="921" activeTab="2" xr2:uid="{C769708F-773E-4FEE-B04C-0F5E2A11DE53}"/>
   </bookViews>
   <sheets>
-    <sheet name="au_to_mu" sheetId="1" r:id="rId1"/>
-    <sheet name="exp_to_au" sheetId="2" r:id="rId2"/>
+    <sheet name="exp_to_au" sheetId="2" r:id="rId1"/>
+    <sheet name="au_to_mu" sheetId="1" r:id="rId2"/>
     <sheet name="mu_to_na" sheetId="3" r:id="rId3"/>
     <sheet name="m1" sheetId="6" r:id="rId4"/>
     <sheet name="m2" sheetId="31" r:id="rId5"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="258">
   <si>
     <t>au1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -926,10 +926,6 @@
     <t>neutral</t>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#ffffff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1023,6 +1019,22 @@
   </si>
   <si>
     <t>#127e88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1417,272 +1429,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715B812C-1D27-41DF-A740-0A4D7BDBCBD4}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3243B89B-B5F9-4975-987D-4118492EE33F}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>86</v>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2379,115 +2234,280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3243B89B-B5F9-4975-987D-4118492EE33F}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715B812C-1D27-41DF-A740-0A4D7BDBCBD4}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>130</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3093,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010DE146-B3CD-4ECE-B3D1-CB7D4CB92714}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -3108,7 +3128,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3118,302 +3138,481 @@
       <c r="C1" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>231</v>
+      <c r="C29" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
